--- a/report_store/template.xlsx
+++ b/report_store/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Date Printed:</t>
   </si>
@@ -118,13 +118,22 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Amount Sold</t>
-  </si>
-  <si>
     <t>Total Sales:</t>
+  </si>
+  <si>
+    <t>Quantity Left</t>
+  </si>
+  <si>
+    <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>TOTAL amount sold</t>
   </si>
 </sst>
 </file>
@@ -254,16 +263,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,18 +274,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -296,6 +293,19 @@
     <xf numFmtId="4" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,9 +428,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Monthly Report'!$B$11:$B$19</c:f>
+              <c:f>'Monthly Report'!$B$11:$B$22</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>JANUARY</c:v>
                 </c:pt>
@@ -447,16 +457,25 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>SEPTEMBER</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>OCTOBER</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>NOVEMBER</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DECEMBER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Monthly Report'!$C$11:$C$19</c:f>
+              <c:f>'Monthly Report'!$C$11:$C$22</c:f>
               <c:numCache>
                 <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -482,6 +501,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -499,11 +527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="81303016"/>
-        <c:axId val="81128672"/>
+        <c:axId val="344546192"/>
+        <c:axId val="344545800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="81303016"/>
+        <c:axId val="344546192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -546,7 +574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81128672"/>
+        <c:crossAx val="344545800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -554,7 +582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81128672"/>
+        <c:axId val="344545800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -605,7 +633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81303016"/>
+        <c:crossAx val="344546192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1500,7 +1528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -1517,133 +1545,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="8"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="8"/>
+      <c r="B2" s="6"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
+      <c r="B3" s="6"/>
       <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="10">
         <v>43352</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="1"/>
       <c r="D4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="8"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
     </row>
     <row r="8" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1660,96 +1688,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="21" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E2" s="19"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>43352</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="8" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>31</v>
       </c>
+      <c r="G8" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1763,10 +1794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G20"/>
+  <dimension ref="B1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1779,33 +1810,33 @@
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>43352</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
@@ -1813,116 +1844,140 @@
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="20">
-        <f>SUM(C11:C19)</f>
+      <c r="C23" s="16">
+        <f>SUM(C11:C22)</f>
         <v>0</v>
       </c>
     </row>

--- a/report_store/template.xlsx
+++ b/report_store/template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
     <t>INVENTORY REPORT</t>
   </si>
   <si>
-    <t>2018 (January-September) SALES ANALYTICS</t>
-  </si>
-  <si>
     <t>MONTH</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>TOTAL amount sold</t>
+  </si>
+  <si>
+    <t>2018 (January-December) SALES ANALYTICS</t>
   </si>
 </sst>
 </file>
@@ -527,11 +527,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="344546192"/>
-        <c:axId val="344545800"/>
+        <c:axId val="344636768"/>
+        <c:axId val="344636376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="344546192"/>
+        <c:axId val="344636768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -574,7 +574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344545800"/>
+        <c:crossAx val="344636376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -582,7 +582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="344545800"/>
+        <c:axId val="344636376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +633,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="344546192"/>
+        <c:crossAx val="344636768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1596,7 +1596,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -1690,7 +1690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -1761,22 +1761,22 @@
     </row>
     <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1796,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,21 +1864,21 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="14">
         <v>0</v>
@@ -1886,7 +1886,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="14">
         <v>0</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="14">
         <v>0</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="14">
         <v>0</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="14">
         <v>0</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="14">
         <v>0</v>
@@ -1926,7 +1926,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="14">
         <v>0</v>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="14">
         <v>0</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="14">
         <v>0</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="14">
         <v>0</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="14">
         <v>0</v>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="14">
         <v>0</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="16">
         <f>SUM(C11:C22)</f>
